--- a/projet/usecase.xlsx
+++ b/projet/usecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\gestion-de-cours\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47110996-F1C0-4E57-9AAC-B61AF3857953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5092C501-A8FC-4D9F-B875-1131529D15B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{564CB55B-9F09-47D8-BB3D-44E7CF7B6CAD}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
-  <si>
-    <t>Title	Description	Label	Assignee	Priorité	Milestone	Due Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="40">
   <si>
     <t>Description</t>
   </si>
@@ -61,31 +58,88 @@
     <t>Design</t>
   </si>
   <si>
-    <t xml:space="preserve">Utilisateur enregistrer/edite/supprimer un cours					</t>
-  </si>
-  <si>
     <t>CRUD cours API</t>
   </si>
   <si>
     <t>Backend</t>
   </si>
   <si>
-    <t xml:space="preserve">Utilisateur enregistrer/edite/supprimer un chapitre					</t>
-  </si>
-  <si>
     <t>CRUD chapitre  API</t>
   </si>
   <si>
-    <t xml:space="preserve">Utilisateur enregistrer/edite/supprimer un exercice				</t>
-  </si>
-  <si>
     <t>CRUD exercice API</t>
   </si>
   <si>
-    <t xml:space="preserve">Utilisateur génére un cours avec une LLM choisie				</t>
-  </si>
-  <si>
     <t>implementation choix llm dans appli</t>
+  </si>
+  <si>
+    <t>correction selon la correction enregistré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilistateur en tant qu'étudiant peut faire et enregistrer un devoir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur en tant que professeur enregistrer/edite/supprimer un cours(format texte ou video)					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur en tant que professeur enregistrer/edite/supprimer un chapitre(format texte ou video)					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur en tant que professeur enregistrer/edite/supprimer un exercice(quiz, question à choix multiple	, question/réponse)			</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur en tant que professeur enregistrer/edite/supprimer une correction d'un exercice(quiz, question à choix multiple	, question/réponse)			</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur en tant que professeur génére un cours entier (avec plusieurs chapitres) +exercice avec une LLM choisie			</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur en tant que professeur génére un cours entier (avec plusieurs chapitres) avec une LLM choisie			</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur en tant que professeur génére un chapitre avec une LLM choisie			</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur en tant que professeur  génére un exercices avec une LLM choisie sur un chapitre			</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur en tant que professeur  génére un exercices avec une LLM choisie sur plusieurs chapitre		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur en tant que professeur génére un exercices avec une LLM choisie sur un cours entiers			</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur en tant que professeur  génére une correction avec une LLM choisie sur un exercice		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur en tant que professeur  choisie qu'un exercice soit corrigé automatiquement par un llm choisie.	</t>
+  </si>
+  <si>
+    <t>Utilisateur en tant que professeur peut partager son cours et assigné des rôle aux utilisateurs qui accède au cours</t>
+  </si>
+  <si>
+    <t>API partage,</t>
+  </si>
+  <si>
+    <t>Utilistateur en tant qu'étudiant peut voir sa proggression (note, pourcentage de cours lu et étudier)</t>
+  </si>
+  <si>
+    <t>Utilistateur en tant que professeur peut voir la proggression des etudiants inscrits (cours partagé) à ses cours</t>
+  </si>
+  <si>
+    <t>application en plusieurs langue</t>
+  </si>
+  <si>
+    <t>Front-end</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Utilistateur en tant qu'étudiant peut consulter les cours partagé et validé la visualisation du cours</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -926,106 +980,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D74AD23-8801-4EEF-86F9-C68FF301B635}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.33203125" customWidth="1"/>
+    <col min="1" max="1" width="120.109375" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B25" t="s">
         <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/projet/usecase.xlsx
+++ b/projet/usecase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\gestion-de-cours\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5092C501-A8FC-4D9F-B875-1131529D15B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A82A7D-1919-4D6E-A3F2-D9FBCB522AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{564CB55B-9F09-47D8-BB3D-44E7CF7B6CAD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{564CB55B-9F09-47D8-BB3D-44E7CF7B6CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="usecase" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Description</t>
   </si>
@@ -133,13 +133,13 @@
     <t>Front-end</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Utilistateur en tant qu'étudiant peut consulter les cours partagé et validé la visualisation du cours</t>
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>FrontEnd</t>
   </si>
 </sst>
 </file>
@@ -980,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D74AD23-8801-4EEF-86F9-C68FF301B635}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,7 +995,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1224,174 +1224,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
